--- a/storage/app/templates/SpecialLeaveForm.xlsx
+++ b/storage/app/templates/SpecialLeaveForm.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="8100" windowWidth="20490" windowHeight="7890"/>
+    <workbookView xWindow="0" yWindow="9000" windowWidth="20490" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -354,13 +354,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -382,6 +381,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -564,6 +569,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -847,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" showRuler="0" view="pageLayout" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A20" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35:H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -858,98 +875,98 @@
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="0.7109375" customWidth="1"/>
     <col min="6" max="6" width="2.140625" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="0.7109375" customWidth="1"/>
     <col min="10" max="10" width="2.140625" customWidth="1"/>
     <col min="12" max="12" width="14.140625" customWidth="1"/>
-    <col min="13" max="13" width="2.85546875" customWidth="1"/>
+    <col min="13" max="13" width="4.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="H1" s="17"/>
+      <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:13" ht="20.25" customHeight="1">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
     </row>
     <row r="4" spans="1:13" ht="3.75" customHeight="1"/>
     <row r="5" spans="1:13">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="73"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="74"/>
     </row>
     <row r="6" spans="1:13" ht="19.5" customHeight="1">
-      <c r="A6" s="52"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="55"/>
+      <c r="A6" s="53"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="56"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="77" t="s">
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="10" t="s">
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="9" t="s">
         <v>5</v>
       </c>
       <c r="K7" s="1"/>
@@ -957,293 +974,293 @@
       <c r="M7" s="2"/>
     </row>
     <row r="8" spans="1:13" ht="20.25" customHeight="1">
-      <c r="A8" s="32"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="55"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="56"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="28"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="29"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="49"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="50"/>
     </row>
     <row r="11" spans="1:13" ht="6.75" customHeight="1">
-      <c r="A11" s="68"/>
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="70"/>
+      <c r="A11" s="69"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="71"/>
     </row>
     <row r="12" spans="1:13" ht="3.75" customHeight="1">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="9"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="8"/>
     </row>
     <row r="13" spans="1:13" ht="9.75" customHeight="1">
-      <c r="A13" s="7"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="9"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="8"/>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1">
-      <c r="A14" s="7"/>
-      <c r="B14" s="33" t="s">
+      <c r="A14" s="6"/>
+      <c r="B14" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="33" t="s">
+      <c r="C14" s="48"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="38"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="32" t="s">
+      <c r="G14" s="39"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="49"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="50"/>
     </row>
     <row r="15" spans="1:13" ht="64.5" customHeight="1">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="67"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="42" t="s">
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="42" t="s">
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="45"/>
     </row>
     <row r="16" spans="1:13" ht="3.75" customHeight="1">
-      <c r="A16" s="6"/>
+      <c r="A16" s="5"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="6"/>
+      <c r="E16" s="5"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="6"/>
+      <c r="I16" s="5"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="2"/>
     </row>
     <row r="17" spans="1:13" ht="9.75" customHeight="1">
-      <c r="A17" s="7"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="9"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="8"/>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1">
-      <c r="A18" s="7"/>
-      <c r="B18" s="33" t="s">
+      <c r="A18" s="6"/>
+      <c r="B18" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="33" t="s">
+      <c r="C18" s="48"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="38"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="57" t="s">
+      <c r="G18" s="39"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="60"/>
     </row>
     <row r="19" spans="1:13" ht="63.75" customHeight="1">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="42" t="s">
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="42" t="s">
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="44"/>
-    </row>
-    <row r="20" spans="1:13" s="15" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A20" s="12" t="s">
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="45"/>
+    </row>
+    <row r="20" spans="1:13" s="14" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A20" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="12" t="s">
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="12" t="s">
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="14"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="13"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="34"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="21"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="22"/>
     </row>
     <row r="22" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A22" s="34"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="24"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="25"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="28"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="29"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="60"/>
-      <c r="B24" s="61"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="16" t="s">
+      <c r="A24" s="61"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="12" t="s">
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="11" t="s">
         <v>31</v>
       </c>
       <c r="J24" s="1"/>
@@ -1252,141 +1269,141 @@
       <c r="M24" s="2"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="62"/>
-      <c r="B25" s="63"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="16" t="s">
+      <c r="A25" s="63"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="41"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="42"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="62"/>
-      <c r="B26" s="63"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="16" t="s">
+      <c r="A26" s="63"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="41"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="42"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="7"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="41"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="42"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="7"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="56"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="57"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="7"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="64" t="s">
+      <c r="A29" s="6"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="G29" s="64"/>
-      <c r="H29" s="64"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="30" t="s">
+      <c r="G29" s="65"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="L29" s="31"/>
-      <c r="M29" s="9"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="8"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="7"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="9"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="8"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="7"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="65" t="s">
+      <c r="A31" s="6"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="F31" s="66"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="38"/>
-      <c r="M31" s="56"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="57"/>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="3"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
-      <c r="E32" s="29" t="s">
+      <c r="E32" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="29" t="s">
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="L32" s="29"/>
-      <c r="M32" s="9"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="8"/>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B33" s="1"/>
@@ -1396,7 +1413,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="6" t="s">
+      <c r="I33" s="5" t="s">
         <v>29</v>
       </c>
       <c r="J33" s="1"/>
@@ -1405,29 +1422,29 @@
       <c r="M33" s="2"/>
     </row>
     <row r="34" spans="1:13" ht="20.25" customHeight="1">
-      <c r="A34" s="32"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="52"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="55"/>
+      <c r="A34" s="33"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="53"/>
+      <c r="J34" s="54"/>
+      <c r="K34" s="54"/>
+      <c r="L34" s="54"/>
+      <c r="M34" s="56"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="6"/>
+      <c r="A35" s="5"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="51"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="83"/>
+      <c r="H35" s="83"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -1435,54 +1452,55 @@
       <c r="M35" s="2"/>
     </row>
     <row r="36" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A36" s="7"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
-      <c r="H36" s="47"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="9"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="84"/>
+      <c r="H36" s="84"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="8"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="32"/>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="38"/>
-      <c r="K37" s="38"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="56"/>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38" s="3"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="29" t="s">
+      <c r="A37" s="33"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="57"/>
+    </row>
+    <row r="38" spans="1:13" ht="15" customHeight="1">
+      <c r="A38" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="5"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="G35:H36"/>
     <mergeCell ref="A11:M11"/>
     <mergeCell ref="E5:H5"/>
     <mergeCell ref="A5:D5"/>
@@ -1495,7 +1513,6 @@
     <mergeCell ref="E15:H15"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="A15:D15"/>
-    <mergeCell ref="E38:H38"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A26:C26"/>
@@ -1504,12 +1521,12 @@
     <mergeCell ref="F29:H29"/>
     <mergeCell ref="E32:H32"/>
     <mergeCell ref="E31:H31"/>
-    <mergeCell ref="E35:H36"/>
     <mergeCell ref="A37:M37"/>
     <mergeCell ref="I28:M28"/>
     <mergeCell ref="I31:M31"/>
     <mergeCell ref="I34:M34"/>
     <mergeCell ref="F25:H27"/>
+    <mergeCell ref="A38:M38"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="E19:H19"/>
     <mergeCell ref="I19:M19"/>

--- a/storage/app/templates/SpecialLeaveForm.xlsx
+++ b/storage/app/templates/SpecialLeaveForm.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="9000" windowWidth="20490" windowHeight="7890"/>
+    <workbookView xWindow="0" yWindow="9450" windowWidth="20490" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,9 +29,6 @@
     <t>APPLICATION FOR SPECIAL PRIVILEGES</t>
   </si>
   <si>
-    <t>(Pursuant to CSC MC No. 6 s. 1999 which amends CSC MC 21 s. 1998 &amp; CSC MC No. 6 &amp; 20 s. 1996</t>
-  </si>
-  <si>
     <t>Name:</t>
   </si>
   <si>
@@ -126,6 +123,9 @@
   </si>
   <si>
     <t>(Force major events that affect the life, limb &amp; property of the employee or his immediate family)</t>
+  </si>
+  <si>
+    <t>(Pursuant to CSC MC No. 6 s. 1999 which amends CSC MC 21 s. 1998 &amp; CSC MC No. 6 &amp; 20 s. 1996)</t>
   </si>
 </sst>
 </file>
@@ -387,6 +387,153 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -414,24 +561,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -442,145 +577,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -864,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A20" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35:H36"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -886,156 +886,156 @@
       <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:13" ht="20.25" customHeight="1">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1">
-      <c r="A3" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
+      <c r="A3" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
     </row>
     <row r="4" spans="1:13" ht="3.75" customHeight="1"/>
     <row r="5" spans="1:13">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="27"/>
+    </row>
+    <row r="6" spans="1:13" ht="19.5" customHeight="1">
+      <c r="A6" s="54"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="40"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
-      <c r="L5" s="73"/>
-      <c r="M5" s="74"/>
-    </row>
-    <row r="6" spans="1:13" ht="19.5" customHeight="1">
-      <c r="A6" s="53"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="56"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="78" t="s">
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="78" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="80"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="33"/>
       <c r="I7" s="5"/>
       <c r="J7" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="2"/>
     </row>
     <row r="8" spans="1:13" ht="20.25" customHeight="1">
-      <c r="A8" s="33"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="56"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="40"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="64"/>
+    </row>
+    <row r="10" spans="1:13" ht="15" customHeight="1">
+      <c r="A10" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="29"/>
-    </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1">
-      <c r="A10" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="50"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="42"/>
     </row>
     <row r="11" spans="1:13" ht="6.75" customHeight="1">
-      <c r="A11" s="69"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="71"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="24"/>
     </row>
     <row r="12" spans="1:13" ht="3.75" customHeight="1">
       <c r="A12" s="6"/>
@@ -1069,45 +1069,45 @@
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1">
       <c r="A14" s="6"/>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="41"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="38"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="42"/>
+    </row>
+    <row r="15" spans="1:13" ht="64.5" customHeight="1">
+      <c r="A15" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="34" t="s">
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="39"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="33" t="s">
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="50"/>
-    </row>
-    <row r="15" spans="1:13" ht="64.5" customHeight="1">
-      <c r="A15" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="45"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="36"/>
     </row>
     <row r="16" spans="1:13" ht="3.75" customHeight="1">
       <c r="A16" s="5"/>
@@ -1141,61 +1141,61 @@
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1">
       <c r="A18" s="6"/>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="41"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="34" t="s">
+      <c r="G18" s="38"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="39"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="58" t="s">
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="68"/>
+    </row>
+    <row r="19" spans="1:13" ht="63.75" customHeight="1">
+      <c r="A19" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="60"/>
-    </row>
-    <row r="19" spans="1:13" ht="63.75" customHeight="1">
-      <c r="A19" s="43" t="s">
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="45"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="36"/>
     </row>
     <row r="20" spans="1:13" s="14" customFormat="1" ht="12.75" customHeight="1">
       <c r="A20" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
       <c r="D20" s="13"/>
       <c r="E20" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
       <c r="I20" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
@@ -1203,65 +1203,65 @@
       <c r="M20" s="13"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="35"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="22"/>
+      <c r="A21" s="80"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="70"/>
+      <c r="M21" s="71"/>
     </row>
     <row r="22" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A22" s="35"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="25"/>
+      <c r="A22" s="80"/>
+      <c r="B22" s="83"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="73"/>
+      <c r="L22" s="73"/>
+      <c r="M22" s="74"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="76"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="77"/>
+      <c r="K23" s="77"/>
+      <c r="L23" s="77"/>
+      <c r="M23" s="64"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="43"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="15" t="s">
         <v>22</v>
-      </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="29"/>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="61"/>
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="15" t="s">
-        <v>23</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -1269,38 +1269,38 @@
       <c r="M24" s="2"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="63"/>
-      <c r="B25" s="64"/>
-      <c r="C25" s="64"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
       <c r="D25" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="84"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="56"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="45"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="42"/>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="63"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="15" t="s">
-        <v>25</v>
-      </c>
       <c r="E26" s="7"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="42"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="55"/>
+      <c r="M26" s="56"/>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="6"/>
@@ -1308,14 +1308,14 @@
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="42"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="84"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="56"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="6"/>
@@ -1323,14 +1323,14 @@
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="57"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="53"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="6"/>
@@ -1338,17 +1338,17 @@
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
-      <c r="F29" s="65" t="s">
-        <v>26</v>
-      </c>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
+      <c r="F29" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
       <c r="I29" s="6"/>
       <c r="J29" s="7"/>
-      <c r="K29" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="L29" s="32"/>
+      <c r="K29" s="78" t="s">
+        <v>31</v>
+      </c>
+      <c r="L29" s="79"/>
       <c r="M29" s="8"/>
     </row>
     <row r="30" spans="1:13">
@@ -1357,9 +1357,9 @@
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="34"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="37"/>
       <c r="I30" s="6"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
@@ -1371,40 +1371,40 @@
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
-      <c r="E31" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="F31" s="67"/>
-      <c r="G31" s="67"/>
-      <c r="H31" s="66"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="57"/>
+      <c r="E31" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="53"/>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="3"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
-      <c r="E32" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
+      <c r="E32" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
       <c r="I32" s="6"/>
       <c r="J32" s="7"/>
-      <c r="K32" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="L32" s="30"/>
+      <c r="K32" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="49"/>
       <c r="M32" s="8"/>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1414,7 +1414,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -1422,19 +1422,19 @@
       <c r="M33" s="2"/>
     </row>
     <row r="34" spans="1:13" ht="20.25" customHeight="1">
-      <c r="A34" s="33"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="54"/>
-      <c r="K34" s="54"/>
-      <c r="L34" s="54"/>
-      <c r="M34" s="56"/>
+      <c r="A34" s="52"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="54"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
+      <c r="M34" s="40"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="5"/>
@@ -1443,8 +1443,8 @@
       <c r="D35" s="1"/>
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
-      <c r="G35" s="83"/>
-      <c r="H35" s="83"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -1458,8 +1458,8 @@
       <c r="D36" s="7"/>
       <c r="E36" s="18"/>
       <c r="F36" s="18"/>
-      <c r="G36" s="84"/>
-      <c r="H36" s="84"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
@@ -1467,39 +1467,74 @@
       <c r="M36" s="8"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="33"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="39"/>
-      <c r="K37" s="39"/>
-      <c r="L37" s="39"/>
-      <c r="M37" s="57"/>
+      <c r="A37" s="52"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="53"/>
     </row>
     <row r="38" spans="1:13" ht="15" customHeight="1">
-      <c r="A38" s="81" t="s">
-        <v>30</v>
-      </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="82"/>
+      <c r="A38" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="49"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="49"/>
+      <c r="K38" s="49"/>
+      <c r="L38" s="49"/>
+      <c r="M38" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A10:M10"/>
+    <mergeCell ref="A9:M9"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="I8:M8"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="I18:M18"/>
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="A38:M38"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="I19:M19"/>
+    <mergeCell ref="A3:M3"/>
+    <mergeCell ref="I21:M22"/>
+    <mergeCell ref="A23:M23"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A21:D22"/>
+    <mergeCell ref="E21:H22"/>
+    <mergeCell ref="I25:M27"/>
+    <mergeCell ref="A37:M37"/>
+    <mergeCell ref="I28:M28"/>
+    <mergeCell ref="I31:M31"/>
+    <mergeCell ref="I34:M34"/>
+    <mergeCell ref="F25:H27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="E31:H31"/>
     <mergeCell ref="G35:H36"/>
     <mergeCell ref="A11:M11"/>
     <mergeCell ref="E5:H5"/>
@@ -1516,41 +1551,6 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A26:C26"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="A37:M37"/>
-    <mergeCell ref="I28:M28"/>
-    <mergeCell ref="I31:M31"/>
-    <mergeCell ref="I34:M34"/>
-    <mergeCell ref="F25:H27"/>
-    <mergeCell ref="A38:M38"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="I19:M19"/>
-    <mergeCell ref="A3:M3"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A10:M10"/>
-    <mergeCell ref="A9:M9"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="I6:M6"/>
-    <mergeCell ref="I8:M8"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="I18:M18"/>
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="I21:M22"/>
-    <mergeCell ref="A23:M23"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A21:D22"/>
-    <mergeCell ref="E21:H22"/>
-    <mergeCell ref="I25:M27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/storage/app/templates/SpecialLeaveForm.xlsx
+++ b/storage/app/templates/SpecialLeaveForm.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="9450" windowWidth="20490" windowHeight="7890"/>
+    <workbookView xWindow="0" yWindow="9900" windowWidth="20490" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -98,9 +98,6 @@
     <t>Second of three</t>
   </si>
   <si>
-    <t>Three of three</t>
-  </si>
-  <si>
     <t>Processing Personnel</t>
   </si>
   <si>
@@ -126,6 +123,9 @@
   </si>
   <si>
     <t>(Pursuant to CSC MC No. 6 s. 1999 which amends CSC MC 21 s. 1998 &amp; CSC MC No. 6 &amp; 20 s. 1996)</t>
+  </si>
+  <si>
+    <t>Third of three</t>
   </si>
 </sst>
 </file>
@@ -387,6 +387,144 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -429,33 +567,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -467,120 +581,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -864,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:M3"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A20" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -886,85 +886,85 @@
       <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:13" ht="20.25" customHeight="1">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1">
-      <c r="A3" s="60" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
+      <c r="A3" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
     </row>
     <row r="4" spans="1:13" ht="3.75" customHeight="1"/>
     <row r="5" spans="1:13">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="27"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="73"/>
     </row>
     <row r="6" spans="1:13" ht="19.5" customHeight="1">
-      <c r="A6" s="54"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="40"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="31"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="31" t="s">
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="33"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="79"/>
       <c r="I7" s="5"/>
       <c r="J7" s="9" t="s">
         <v>4</v>
@@ -974,68 +974,68 @@
       <c r="M7" s="2"/>
     </row>
     <row r="8" spans="1:13" ht="20.25" customHeight="1">
-      <c r="A8" s="52"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="40"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="31"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="63"/>
-      <c r="M9" s="64"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="26"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="42"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="23"/>
     </row>
     <row r="11" spans="1:13" ht="6.75" customHeight="1">
-      <c r="A11" s="22"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="24"/>
+      <c r="A11" s="68"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="70"/>
     </row>
     <row r="12" spans="1:13" ht="3.75" customHeight="1">
       <c r="A12" s="6"/>
@@ -1069,45 +1069,45 @@
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1">
       <c r="A14" s="6"/>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="42"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="23"/>
       <c r="E14" s="10"/>
-      <c r="F14" s="37" t="s">
+      <c r="F14" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="38"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="52" t="s">
+      <c r="G14" s="59"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="42"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="23"/>
     </row>
     <row r="15" spans="1:13" ht="64.5" customHeight="1">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="34" t="s">
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="34" t="s">
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="36"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="41"/>
     </row>
     <row r="16" spans="1:13" ht="3.75" customHeight="1">
       <c r="A16" s="5"/>
@@ -1141,45 +1141,45 @@
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1">
       <c r="A18" s="6"/>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="42"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="23"/>
       <c r="E18" s="10"/>
-      <c r="F18" s="37" t="s">
+      <c r="F18" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="38"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="66" t="s">
+      <c r="G18" s="59"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="68"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="35"/>
     </row>
     <row r="19" spans="1:13" ht="63.75" customHeight="1">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="34" t="s">
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="36"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="41"/>
     </row>
     <row r="20" spans="1:13" s="14" customFormat="1" ht="12.75" customHeight="1">
       <c r="A20" s="11" t="s">
@@ -1203,56 +1203,56 @@
       <c r="M20" s="13"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="80"/>
-      <c r="B21" s="81"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="71"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="46"/>
     </row>
     <row r="22" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A22" s="80"/>
-      <c r="B22" s="83"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="82"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="73"/>
-      <c r="L22" s="73"/>
-      <c r="M22" s="74"/>
+      <c r="A22" s="55"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="49"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="75" t="s">
+      <c r="A23" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="76"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="77"/>
-      <c r="J23" s="77"/>
-      <c r="K23" s="77"/>
-      <c r="L23" s="77"/>
-      <c r="M23" s="64"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="26"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="43"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
+      <c r="A24" s="81"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="82"/>
       <c r="D24" s="15" t="s">
         <v>22</v>
       </c>
@@ -1261,7 +1261,7 @@
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -1269,38 +1269,38 @@
       <c r="M24" s="2"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="45"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
+      <c r="A25" s="83"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="84"/>
       <c r="D25" s="15" t="s">
         <v>23</v>
       </c>
       <c r="E25" s="7"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="84"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="56"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="62"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="45"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
+      <c r="A26" s="83"/>
+      <c r="B26" s="84"/>
+      <c r="C26" s="84"/>
       <c r="D26" s="15" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E26" s="7"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="84"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="55"/>
-      <c r="M26" s="56"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="62"/>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="6"/>
@@ -1308,14 +1308,14 @@
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="84"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="55"/>
-      <c r="M27" s="56"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="62"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="6"/>
@@ -1323,14 +1323,14 @@
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="53"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="59"/>
+      <c r="M28" s="32"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="6"/>
@@ -1338,17 +1338,17 @@
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
-      <c r="F29" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
+      <c r="F29" s="63" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
       <c r="I29" s="6"/>
       <c r="J29" s="7"/>
-      <c r="K29" s="78" t="s">
-        <v>31</v>
-      </c>
-      <c r="L29" s="79"/>
+      <c r="K29" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="L29" s="54"/>
       <c r="M29" s="8"/>
     </row>
     <row r="30" spans="1:13">
@@ -1357,9 +1357,9 @@
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="37"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="27"/>
       <c r="I30" s="6"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
@@ -1371,40 +1371,40 @@
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
-      <c r="E31" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="38"/>
-      <c r="M31" s="53"/>
+      <c r="E31" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="59"/>
+      <c r="M31" s="32"/>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="3"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
-      <c r="E32" s="49" t="s">
+      <c r="E32" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
       <c r="I32" s="6"/>
       <c r="J32" s="7"/>
-      <c r="K32" s="49" t="s">
+      <c r="K32" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="49"/>
+      <c r="L32" s="37"/>
       <c r="M32" s="8"/>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1414,7 +1414,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -1422,19 +1422,19 @@
       <c r="M33" s="2"/>
     </row>
     <row r="34" spans="1:13" ht="20.25" customHeight="1">
-      <c r="A34" s="52"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="54"/>
-      <c r="J34" s="47"/>
-      <c r="K34" s="47"/>
-      <c r="L34" s="47"/>
-      <c r="M34" s="40"/>
+      <c r="A34" s="22"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="31"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="5"/>
@@ -1443,8 +1443,8 @@
       <c r="D35" s="1"/>
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
+      <c r="G35" s="66"/>
+      <c r="H35" s="66"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -1458,8 +1458,8 @@
       <c r="D36" s="7"/>
       <c r="E36" s="18"/>
       <c r="F36" s="18"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="67"/>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
@@ -1467,51 +1467,62 @@
       <c r="M36" s="8"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="52"/>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="38"/>
-      <c r="K37" s="38"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="53"/>
+      <c r="A37" s="22"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="59"/>
+      <c r="J37" s="59"/>
+      <c r="K37" s="59"/>
+      <c r="L37" s="59"/>
+      <c r="M37" s="32"/>
     </row>
     <row r="38" spans="1:13" ht="15" customHeight="1">
-      <c r="A38" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="B38" s="49"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="49"/>
-      <c r="J38" s="49"/>
-      <c r="K38" s="49"/>
-      <c r="L38" s="49"/>
-      <c r="M38" s="58"/>
+      <c r="A38" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="37"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A10:M10"/>
-    <mergeCell ref="A9:M9"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="I6:M6"/>
-    <mergeCell ref="I8:M8"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="I18:M18"/>
-    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="G35:H36"/>
+    <mergeCell ref="A11:M11"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="I15:M15"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="I34:M34"/>
+    <mergeCell ref="F25:H27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="E31:H31"/>
     <mergeCell ref="A38:M38"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="E19:H19"/>
@@ -1528,29 +1539,18 @@
     <mergeCell ref="A37:M37"/>
     <mergeCell ref="I28:M28"/>
     <mergeCell ref="I31:M31"/>
-    <mergeCell ref="I34:M34"/>
-    <mergeCell ref="F25:H27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="G35:H36"/>
-    <mergeCell ref="A11:M11"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="I15:M15"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A10:M10"/>
+    <mergeCell ref="A9:M9"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="I8:M8"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="I18:M18"/>
+    <mergeCell ref="I14:M14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
